--- a/TestData/Web_POS/Billing/mode_of_payment_test_data.xlsx
+++ b/TestData/Web_POS/Billing/mode_of_payment_test_data.xlsx
@@ -108,136 +108,145 @@
     <t>TC_16</t>
   </si>
   <si>
-    <t>4VUQlK</t>
+    <t>KdYzhi</t>
   </si>
   <si>
     <t>TC_17</t>
   </si>
   <si>
+    <t>userone_p1</t>
+  </si>
+  <si>
+    <t>1mzWPD</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
     <t>3072606245nJ</t>
   </si>
   <si>
+    <t>usertwo_p3</t>
+  </si>
+  <si>
+    <t>m3DOdg</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>307260624ut0</t>
+  </si>
+  <si>
+    <t>usertwo_p2</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>307260624PTe</t>
+  </si>
+  <si>
+    <t>userone_p4</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>307260624uOm</t>
+  </si>
+  <si>
+    <t>userone_p5</t>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t>TC_31</t>
+  </si>
+  <si>
+    <t>TC_32</t>
+  </si>
+  <si>
+    <t>TC_33</t>
+  </si>
+  <si>
+    <t>userone_p2</t>
+  </si>
+  <si>
+    <t>TC_34</t>
+  </si>
+  <si>
+    <t>TC_35</t>
+  </si>
+  <si>
+    <t>307260624SF2</t>
+  </si>
+  <si>
+    <t>userone_p6</t>
+  </si>
+  <si>
+    <t>TC_36</t>
+  </si>
+  <si>
+    <t>307260624cuS</t>
+  </si>
+  <si>
+    <t>userone_p7</t>
+  </si>
+  <si>
+    <t>TC_37</t>
+  </si>
+  <si>
+    <t>TC_38</t>
+  </si>
+  <si>
+    <t>TC_39</t>
+  </si>
+  <si>
+    <t>TC_40</t>
+  </si>
+  <si>
+    <t>TC_41</t>
+  </si>
+  <si>
+    <t>TC_42</t>
+  </si>
+  <si>
+    <t>TC_43</t>
+  </si>
+  <si>
+    <t>TC_44</t>
+  </si>
+  <si>
+    <t>TC_45</t>
+  </si>
+  <si>
     <t>userone_p3</t>
-  </si>
-  <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>TC_19</t>
-  </si>
-  <si>
-    <t>TC_20</t>
-  </si>
-  <si>
-    <t>TC_21</t>
-  </si>
-  <si>
-    <t>TC_22</t>
-  </si>
-  <si>
-    <t>TC_23</t>
-  </si>
-  <si>
-    <t>TC_24</t>
-  </si>
-  <si>
-    <t>TC_25</t>
-  </si>
-  <si>
-    <t>307260624ut0</t>
-  </si>
-  <si>
-    <t>usertwo_p2</t>
-  </si>
-  <si>
-    <t>TC_26</t>
-  </si>
-  <si>
-    <t>userone_p1</t>
-  </si>
-  <si>
-    <t>TC_27</t>
-  </si>
-  <si>
-    <t>307260624PTe</t>
-  </si>
-  <si>
-    <t>userone_p4</t>
-  </si>
-  <si>
-    <t>TC_28</t>
-  </si>
-  <si>
-    <t>307260624uOm</t>
-  </si>
-  <si>
-    <t>userone_p5</t>
-  </si>
-  <si>
-    <t>TC_29</t>
-  </si>
-  <si>
-    <t>TC_30</t>
-  </si>
-  <si>
-    <t>TC_31</t>
-  </si>
-  <si>
-    <t>TC_32</t>
-  </si>
-  <si>
-    <t>TC_33</t>
-  </si>
-  <si>
-    <t>userone_p2</t>
-  </si>
-  <si>
-    <t>TC_34</t>
-  </si>
-  <si>
-    <t>TC_35</t>
-  </si>
-  <si>
-    <t>307260624SF2</t>
-  </si>
-  <si>
-    <t>userone_p6</t>
-  </si>
-  <si>
-    <t>TC_36</t>
-  </si>
-  <si>
-    <t>307260624cuS</t>
-  </si>
-  <si>
-    <t>userone_p7</t>
-  </si>
-  <si>
-    <t>TC_37</t>
-  </si>
-  <si>
-    <t>TC_38</t>
-  </si>
-  <si>
-    <t>TC_39</t>
-  </si>
-  <si>
-    <t>TC_40</t>
-  </si>
-  <si>
-    <t>TC_41</t>
-  </si>
-  <si>
-    <t>TC_42</t>
-  </si>
-  <si>
-    <t>TC_43</t>
-  </si>
-  <si>
-    <t>TC_44</t>
-  </si>
-  <si>
-    <t>TC_45</t>
   </si>
   <si>
     <t>TC_46</t>
@@ -536,7 +545,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -815,46 +824,49 @@
         <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>600</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G6">
-        <v>1000</v>
-      </c>
-      <c r="H6">
-        <v>600</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -862,7 +874,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -871,7 +883,7 @@
         <v>123456</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
@@ -902,11 +914,14 @@
       </c>
       <c r="O7" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -953,7 +968,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1000,7 +1015,7 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
@@ -1047,7 +1062,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1094,7 +1109,7 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -1145,7 +1160,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1192,10 +1207,10 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -1204,7 +1219,7 @@
         <v>123456</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
@@ -1239,7 +1254,7 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -1251,7 +1266,7 @@
         <v>123456</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2">
         <v>123456</v>
@@ -1286,10 +1301,10 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1298,7 +1313,7 @@
         <v>123456</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2">
         <v>123456</v>
@@ -1333,10 +1348,10 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -1345,7 +1360,7 @@
         <v>123456</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2">
         <v>123456</v>
@@ -1384,10 +1399,10 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1396,7 +1411,7 @@
         <v>123456</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2">
         <v>123456</v>
@@ -1435,19 +1450,19 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F19" s="2">
         <v>123456</v>
@@ -1486,10 +1501,10 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -1498,7 +1513,7 @@
         <v>123456</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2">
         <v>123456</v>
@@ -1537,10 +1552,10 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1549,7 +1564,7 @@
         <v>123456</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2">
         <v>123456</v>
@@ -1588,10 +1603,10 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -1600,7 +1615,7 @@
         <v>123456</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2">
         <v>123456</v>
@@ -1636,7 +1651,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -1684,10 +1699,10 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -1696,7 +1711,7 @@
         <v>123456</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2">
         <v>123456</v>
@@ -1734,10 +1749,10 @@
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -1746,7 +1761,7 @@
         <v>123456</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F25" s="2">
         <v>123456</v>
@@ -1781,10 +1796,10 @@
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -1793,7 +1808,7 @@
         <v>123456</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2">
         <v>123456</v>
@@ -1832,19 +1847,19 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F27" s="2">
         <v>123456</v>
@@ -1879,10 +1894,10 @@
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -1891,7 +1906,7 @@
         <v>123456</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2">
         <v>123456</v>
@@ -1926,10 +1941,10 @@
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
@@ -1938,7 +1953,7 @@
         <v>123456</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2">
         <v>123456</v>
@@ -1973,7 +1988,7 @@
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>17</v>
@@ -2020,7 +2035,7 @@
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>17</v>
@@ -2067,7 +2082,7 @@
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -2114,7 +2129,7 @@
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
@@ -2161,10 +2176,10 @@
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -2173,7 +2188,7 @@
         <v>123456</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2">
         <v>123456</v>
@@ -2208,10 +2223,10 @@
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
@@ -2220,7 +2235,7 @@
         <v>123456</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2">
         <v>123456</v>

--- a/TestData/Web_POS/Billing/mode_of_payment_test_data.xlsx
+++ b/TestData/Web_POS/Billing/mode_of_payment_test_data.xlsx
@@ -78,7 +78,7 @@
     <t>zwshashank.agrawal@teampureplay.com</t>
   </si>
   <si>
-    <t>usertwo_p1</t>
+    <t>userone_p1</t>
   </si>
   <si>
     <t>Index9QA</t>
@@ -114,9 +114,6 @@
     <t>TC_17</t>
   </si>
   <si>
-    <t>userone_p1</t>
-  </si>
-  <si>
     <t>1mzWPD</t>
   </si>
   <si>
@@ -126,21 +123,12 @@
     <t>3072606245nJ</t>
   </si>
   <si>
-    <t>usertwo_p3</t>
+    <t>userone_p3</t>
   </si>
   <si>
     <t>m3DOdg</t>
   </si>
   <si>
-    <t>TC_19</t>
-  </si>
-  <si>
-    <t>TC_20</t>
-  </si>
-  <si>
-    <t>TC_21</t>
-  </si>
-  <si>
     <t>TC_22</t>
   </si>
   <si>
@@ -150,36 +138,21 @@
     <t>TC_24</t>
   </si>
   <si>
+    <t>8906118410781 : 10 , 8906118412556 : 10</t>
+  </si>
+  <si>
     <t>TC_25</t>
   </si>
   <si>
-    <t>307260624ut0</t>
-  </si>
-  <si>
-    <t>usertwo_p2</t>
-  </si>
-  <si>
     <t>TC_26</t>
   </si>
   <si>
     <t>TC_27</t>
   </si>
   <si>
-    <t>307260624PTe</t>
-  </si>
-  <si>
-    <t>userone_p4</t>
-  </si>
-  <si>
     <t>TC_28</t>
   </si>
   <si>
-    <t>307260624uOm</t>
-  </si>
-  <si>
-    <t>userone_p5</t>
-  </si>
-  <si>
     <t>TC_29</t>
   </si>
   <si>
@@ -190,66 +163,6 @@
   </si>
   <si>
     <t>TC_32</t>
-  </si>
-  <si>
-    <t>TC_33</t>
-  </si>
-  <si>
-    <t>userone_p2</t>
-  </si>
-  <si>
-    <t>TC_34</t>
-  </si>
-  <si>
-    <t>TC_35</t>
-  </si>
-  <si>
-    <t>307260624SF2</t>
-  </si>
-  <si>
-    <t>userone_p6</t>
-  </si>
-  <si>
-    <t>TC_36</t>
-  </si>
-  <si>
-    <t>307260624cuS</t>
-  </si>
-  <si>
-    <t>userone_p7</t>
-  </si>
-  <si>
-    <t>TC_37</t>
-  </si>
-  <si>
-    <t>TC_38</t>
-  </si>
-  <si>
-    <t>TC_39</t>
-  </si>
-  <si>
-    <t>TC_40</t>
-  </si>
-  <si>
-    <t>TC_41</t>
-  </si>
-  <si>
-    <t>TC_42</t>
-  </si>
-  <si>
-    <t>TC_43</t>
-  </si>
-  <si>
-    <t>TC_44</t>
-  </si>
-  <si>
-    <t>TC_45</t>
-  </si>
-  <si>
-    <t>userone_p3</t>
-  </si>
-  <si>
-    <t>TC_46</t>
   </si>
 </sst>
 </file>
@@ -545,7 +458,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -769,159 +682,63 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G5">
-        <v>1000</v>
-      </c>
-      <c r="H5">
-        <v>600</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G6">
-        <v>1000</v>
-      </c>
-      <c r="H6">
-        <v>600</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G7">
-        <v>1000</v>
-      </c>
-      <c r="H7">
-        <v>600</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" t="s">
-        <v>36</v>
-      </c>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -965,10 +782,13 @@
       <c r="O8" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1012,13 +832,16 @@
       <c r="O9" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="P9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -1027,7 +850,7 @@
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
@@ -1059,158 +882,52 @@
       <c r="O10" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-      <c r="H11">
-        <v>600</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G12">
-        <v>1000</v>
-      </c>
-      <c r="H12">
-        <v>600</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-      <c r="H13">
-        <v>600</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -1219,7 +936,7 @@
         <v>123456</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
@@ -1254,7 +971,7 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -1266,7 +983,7 @@
         <v>123456</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2">
         <v>123456</v>
@@ -1298,13 +1015,17 @@
       <c r="O15" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1313,7 +1034,7 @@
         <v>123456</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2">
         <v>123456</v>
@@ -1328,7 +1049,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>22</v>
@@ -1348,10 +1069,10 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -1360,7 +1081,7 @@
         <v>123456</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2">
         <v>123456</v>
@@ -1392,17 +1113,13 @@
       <c r="O17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="5"/>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1411,7 +1128,7 @@
         <v>123456</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2">
         <v>123456</v>
@@ -1443,17 +1160,13 @@
       <c r="O18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="5"/>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -1462,7 +1175,7 @@
         <v>123456</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2">
         <v>123456</v>
@@ -1494,17 +1207,13 @@
       <c r="O19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="5"/>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -1513,7 +1222,7 @@
         <v>123456</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2">
         <v>123456</v>
@@ -1552,10 +1261,10 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1564,7 +1273,7 @@
         <v>123456</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2">
         <v>123456</v>
@@ -1603,10 +1312,10 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -1615,7 +1324,7 @@
         <v>123456</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2">
         <v>123456</v>
@@ -1647,11 +1356,14 @@
       <c r="O22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U22" s="1"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="5"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -1695,14 +1407,17 @@
       <c r="O23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U23" s="1"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="5"/>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -1711,7 +1426,7 @@
         <v>123456</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="F24" s="2">
         <v>123456</v>
@@ -1745,528 +1460,149 @@
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="5"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="5"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G25">
-        <v>1000</v>
-      </c>
-      <c r="H25">
-        <v>600</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="I25" s="1"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="U25" s="1"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G26">
-        <v>1000</v>
-      </c>
-      <c r="H26">
-        <v>600</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="I26" s="1"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="U26" s="1"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G27">
-        <v>1000</v>
-      </c>
-      <c r="H27">
-        <v>600</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="I27" s="1"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="5"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G28">
-        <v>1000</v>
-      </c>
-      <c r="H28">
-        <v>600</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="I28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G29">
-        <v>1000</v>
-      </c>
-      <c r="H29">
-        <v>600</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="I29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="5"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G30">
-        <v>1000</v>
-      </c>
-      <c r="H30">
-        <v>600</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="I30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G31">
-        <v>1000</v>
-      </c>
-      <c r="H31">
-        <v>600</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="I31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G32">
-        <v>1000</v>
-      </c>
-      <c r="H32">
-        <v>600</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="I32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G33">
-        <v>1000</v>
-      </c>
-      <c r="H33">
-        <v>600</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="I33" s="1"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G34">
-        <v>1000</v>
-      </c>
-      <c r="H34">
-        <v>600</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="I34" s="1"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G35">
-        <v>1000</v>
-      </c>
-      <c r="H35">
-        <v>600</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="I35" s="1"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="2"/>
@@ -2460,22 +1796,43 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-    </row>
-    <row r="53" ht="12.75">
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-    </row>
-    <row r="54" ht="12.75">
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-    </row>
-    <row r="55" ht="12.75">
+    <row r="52" ht="14.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="I53" s="1"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="I54" s="1"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
@@ -2495,9 +1852,21 @@
       <c r="K58"/>
       <c r="L58"/>
     </row>
-    <row r="59" ht="12.75"/>
-    <row r="60" ht="12.75"/>
-    <row r="61" ht="12.75"/>
+    <row r="59" ht="12.75">
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+    </row>
+    <row r="60" ht="12.75">
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+    </row>
+    <row r="61" ht="12.75">
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+    </row>
     <row r="62" ht="12.75"/>
     <row r="63" ht="12.75"/>
     <row r="64" ht="12.75"/>
@@ -2525,6 +1894,9 @@
     <row r="86" ht="12.75"/>
     <row r="87" ht="12.75"/>
     <row r="88" ht="12.75"/>
+    <row r="89" ht="12.75"/>
+    <row r="90" ht="12.75"/>
+    <row r="91" ht="12.75"/>
   </sheetData>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/TestData/Web_POS/Billing/mode_of_payment_test_data.xlsx
+++ b/TestData/Web_POS/Billing/mode_of_payment_test_data.xlsx
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>voucher_code</t>
+  </si>
+  <si>
+    <t>tax_invoice</t>
   </si>
   <si>
     <t>TC_01</t>
@@ -457,8 +460,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="J1">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -540,22 +543,25 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>123456</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>123456</v>
@@ -567,42 +573,42 @@
         <v>500</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="3">
         <v>45384</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>123456</v>
@@ -614,42 +620,42 @@
         <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="3">
         <v>45384</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>123456</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>123456</v>
@@ -661,36 +667,33 @@
         <v>300</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="3">
         <v>45384</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5"/>
-      <c r="H5"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -698,17 +701,13 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6"/>
-      <c r="H6"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -716,17 +715,13 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7"/>
-      <c r="H7"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -734,23 +729,22 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
@@ -762,45 +756,45 @@
         <v>600</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" s="3">
         <v>45384</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>123456</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <v>123456</v>
@@ -812,45 +806,45 @@
         <v>600</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="3">
         <v>45384</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
@@ -862,28 +856,28 @@
         <v>600</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" s="3">
         <v>45384</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" ht="14.25">
@@ -924,19 +918,19 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
         <v>123456</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
@@ -948,42 +942,42 @@
         <v>600</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L14" s="3">
         <v>45384</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
         <v>123456</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2">
         <v>123456</v>
@@ -995,25 +989,25 @@
         <v>600</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="3">
         <v>45384</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -1022,19 +1016,19 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2">
         <v>123456</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2">
         <v>123456</v>
@@ -1046,42 +1040,42 @@
         <v>600</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L16" s="3">
         <v>45384</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
         <v>123456</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2">
         <v>123456</v>
@@ -1093,42 +1087,42 @@
         <v>600</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L17" s="3">
         <v>45384</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>123456</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2">
         <v>123456</v>
@@ -1140,42 +1134,42 @@
         <v>600</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" s="3">
         <v>45384</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
         <v>123456</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2">
         <v>123456</v>
@@ -1187,42 +1181,42 @@
         <v>600</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L19" s="3">
         <v>45384</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
         <v>123456</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2">
         <v>123456</v>
@@ -1234,25 +1228,25 @@
         <v>600</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L20" s="3">
         <v>45384</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -1261,19 +1255,19 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2">
         <v>123456</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2">
         <v>123456</v>
@@ -1285,25 +1279,25 @@
         <v>600</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="3">
         <v>45384</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
@@ -1312,19 +1306,19 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
         <v>123456</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2">
         <v>123456</v>
@@ -1336,25 +1330,25 @@
         <v>600</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L22" s="3">
         <v>45384</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
@@ -1363,19 +1357,19 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2">
         <v>123456</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2">
         <v>123456</v>
@@ -1387,25 +1381,25 @@
         <v>600</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L23" s="3">
         <v>45384</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -1414,19 +1408,19 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2">
         <v>123456</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2">
         <v>123456</v>
@@ -1438,25 +1432,25 @@
         <v>600</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" s="3">
         <v>45384</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>

--- a/TestData/Web_POS/Billing/mode_of_payment_test_data.xlsx
+++ b/TestData/Web_POS/Billing/mode_of_payment_test_data.xlsx
@@ -1,199 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Web_POS\Billing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>TC_Id</t>
-  </si>
-  <si>
-    <t>serial_key</t>
-  </si>
-  <si>
-    <t>username_admin</t>
-  </si>
-  <si>
-    <t>password_admin</t>
-  </si>
-  <si>
-    <t>username_pos</t>
-  </si>
-  <si>
-    <t>password_pos</t>
-  </si>
-  <si>
-    <t>closing_balance</t>
-  </si>
-  <si>
-    <t>opening_balance</t>
-  </si>
-  <si>
-    <t>store_name</t>
-  </si>
-  <si>
-    <t>buy_items</t>
-  </si>
-  <si>
-    <t>get_items</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>voucher_code</t>
-  </si>
-  <si>
-    <t>tax_invoice</t>
-  </si>
-  <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>307260624WoJ</t>
-  </si>
-  <si>
-    <t>zwshashank.agrawal@teampureplay.com</t>
-  </si>
-  <si>
-    <t>userone_p1</t>
-  </si>
-  <si>
-    <t>Index9QA</t>
-  </si>
-  <si>
-    <t>8906118410781 : 1</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>TC_16</t>
-  </si>
-  <si>
-    <t>KdYzhi</t>
-  </si>
-  <si>
-    <t>TC_17</t>
-  </si>
-  <si>
-    <t>1mzWPD</t>
-  </si>
-  <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>3072606245nJ</t>
-  </si>
-  <si>
-    <t>userone_p3</t>
-  </si>
-  <si>
-    <t>m3DOdg</t>
-  </si>
-  <si>
-    <t>TC_22</t>
-  </si>
-  <si>
-    <t>TC_23</t>
-  </si>
-  <si>
-    <t>TC_24</t>
-  </si>
-  <si>
-    <t>8906118410781 : 10 , 8906118412556 : 10</t>
-  </si>
-  <si>
-    <t>TC_25</t>
-  </si>
-  <si>
-    <t>TC_26</t>
-  </si>
-  <si>
-    <t>TC_27</t>
-  </si>
-  <si>
-    <t>TC_28</t>
-  </si>
-  <si>
-    <t>TC_29</t>
-  </si>
-  <si>
-    <t>TC_30</t>
-  </si>
-  <si>
-    <t>TC_31</t>
-  </si>
-  <si>
-    <t>TC_32</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="48">
+  <si>
+    <t xml:space="preserve">TC_Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serial_key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username_pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password_pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closing_balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opening_balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy_items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voucher_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax_invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624WoJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zwshashank.agrawal@teampureplay.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index9QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8906118410781 : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharashtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wkgVcw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1mzWPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3072606245nJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8906118410781 : 10 , 8906118412556 : 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF2B579A"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF2B579A"/>
-      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,159 +221,260 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E7E7"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF2B579A"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
-    <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="20"/>
+    <cellStyle name="HeaderStyle" xfId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFE7E7E7"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF2B579A"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -361,34 +482,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -401,13 +512,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -417,15 +522,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -433,7 +536,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -441,12 +543,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -455,47 +556,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryRight="0" summaryBelow="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="J1">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P10" activeCellId="0" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="19.28516" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="19.28516" customWidth="1"/>
-    <col min="5" max="5" width="18.57031" customWidth="1"/>
-    <col min="6" max="6" width="14.85547" customWidth="1"/>
-    <col min="7" max="7" width="16.71094" customWidth="1"/>
-    <col min="8" max="8" width="19.14063" customWidth="1"/>
-    <col min="9" max="9" width="19.14063" customWidth="1"/>
-    <col min="10" max="10" width="39.71094" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.71094" customWidth="1"/>
-    <col min="14" max="14" width="10.71094" customWidth="1"/>
-    <col min="15" max="15" width="10.71094" customWidth="1"/>
-    <col min="16" max="16" width="19.14063" customWidth="1"/>
-    <col min="17" max="17" width="19.14063" customWidth="1"/>
-    <col min="18" max="18" width="36.25" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.92969" customWidth="1"/>
-    <col min="22" max="22" width="29.45703" style="1" customWidth="1"/>
-    <col min="23" max="23" width="29.45703" style="1" customWidth="1"/>
-    <col min="24" max="24" width="29.45703" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.20703" customWidth="1"/>
-    <col min="26" max="26" width="15" customWidth="1"/>
-    <col min="27" max="27" width="18.92969" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="22" style="1" width="29.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="23.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="18.93"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -513,42 +608,42 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="33.75" customHeight="1">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -557,19 +652,19 @@
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="n">
         <v>500</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -581,7 +676,7 @@
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -594,8 +689,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -604,19 +699,19 @@
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0" t="n">
         <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -628,7 +723,7 @@
       <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -641,8 +736,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -651,19 +746,19 @@
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0" t="n">
         <v>300</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -675,7 +770,7 @@
       <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -688,50 +783,44 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" ht="14.25">
-      <c r="A8" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -740,19 +829,19 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -764,7 +853,7 @@
       <c r="K8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -776,12 +865,12 @@
       <c r="O8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
-      <c r="A9" t="s">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -790,19 +879,19 @@
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -814,7 +903,7 @@
       <c r="K9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -826,12 +915,12 @@
       <c r="O9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -840,19 +929,19 @@
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -864,7 +953,7 @@
       <c r="K10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -876,11 +965,11 @@
       <c r="O10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
+      <c r="P10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -892,7 +981,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -904,7 +993,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" ht="14.25">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -916,9 +1005,9 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" ht="14.25">
-      <c r="A14" t="s">
-        <v>37</v>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
@@ -926,19 +1015,19 @@
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -950,7 +1039,7 @@
       <c r="K14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -963,9 +1052,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
-      <c r="A15" t="s">
-        <v>38</v>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -973,19 +1062,19 @@
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -997,7 +1086,7 @@
       <c r="K15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1009,14 +1098,14 @@
       <c r="O15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="5"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" t="s">
-        <v>39</v>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
@@ -1024,31 +1113,31 @@
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1061,9 +1150,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
-      <c r="A17" t="s">
-        <v>41</v>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
@@ -1071,19 +1160,19 @@
       <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1095,7 +1184,7 @@
       <c r="K17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -1108,9 +1197,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
-      <c r="A18" t="s">
-        <v>42</v>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -1118,19 +1207,19 @@
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1142,7 +1231,7 @@
       <c r="K18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1155,9 +1244,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
-      <c r="A19" t="s">
-        <v>43</v>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -1165,19 +1254,19 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1189,7 +1278,7 @@
       <c r="K19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -1202,9 +1291,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
-      <c r="A20" t="s">
-        <v>44</v>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
@@ -1212,19 +1301,19 @@
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1236,7 +1325,7 @@
       <c r="K20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -1248,14 +1337,14 @@
       <c r="O20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="5"/>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" t="s">
-        <v>45</v>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
@@ -1263,19 +1352,19 @@
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G21" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1287,7 +1376,7 @@
       <c r="K21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -1299,14 +1388,14 @@
       <c r="O21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="5"/>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" t="s">
-        <v>46</v>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -1314,19 +1403,19 @@
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1338,7 +1427,7 @@
       <c r="K22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -1350,14 +1439,14 @@
       <c r="O22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="5"/>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" t="s">
-        <v>47</v>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
@@ -1365,19 +1454,19 @@
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1389,7 +1478,7 @@
       <c r="K23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -1401,14 +1490,14 @@
       <c r="O23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="5"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" t="s">
-        <v>48</v>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
@@ -1416,19 +1505,19 @@
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G24" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1440,7 +1529,7 @@
       <c r="K24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -1452,12 +1541,12 @@
       <c r="O24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="5"/>
-    </row>
-    <row r="25" ht="14.25">
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1470,7 +1559,7 @@
       <c r="O25" s="3"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" ht="14.25">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1483,7 +1572,7 @@
       <c r="O26" s="3"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" ht="14.25">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1494,11 +1583,11 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="5"/>
-    </row>
-    <row r="28" ht="14.25">
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1510,7 +1599,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" ht="14.25">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1521,12 +1610,12 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="5"/>
-    </row>
-    <row r="30" ht="14.25">
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1538,7 +1627,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" ht="14.25">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1550,7 +1639,7 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" ht="14.25">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1562,7 +1651,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" ht="14.25">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1574,7 +1663,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" ht="14.25">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1586,7 +1675,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" ht="14.25">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1598,7 +1687,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" ht="14.25">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1610,7 +1699,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" ht="14.25">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1622,7 +1711,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" ht="14.25">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1634,7 +1723,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" ht="14.25">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1646,7 +1735,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" ht="14.25">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1658,7 +1747,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" ht="14.25">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1670,7 +1759,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" ht="14.25">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1682,7 +1771,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" ht="14.25">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1694,7 +1783,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" ht="14.25">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1706,7 +1795,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" ht="14.25">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1718,7 +1807,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" ht="14.25">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1730,7 +1819,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" ht="14.25">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1742,7 +1831,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" ht="14.25">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1754,7 +1843,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" ht="14.25">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1766,7 +1855,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" ht="14.25">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1778,7 +1867,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" ht="14.25">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1790,7 +1879,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" ht="14.25">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1802,7 +1891,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" ht="14.25">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1814,7 +1903,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" ht="14.25">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1826,72 +1915,49 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-    </row>
-    <row r="56" ht="12.75">
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-    </row>
-    <row r="57" ht="12.75">
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-    </row>
-    <row r="58" ht="12.75">
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-    </row>
-    <row r="59" ht="12.75">
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-    </row>
-    <row r="60" ht="12.75">
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-    </row>
-    <row r="61" ht="12.75">
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-    </row>
-    <row r="62" ht="12.75"/>
-    <row r="63" ht="12.75"/>
-    <row r="64" ht="12.75"/>
-    <row r="65" ht="12.75"/>
-    <row r="66" ht="12.75"/>
-    <row r="67" ht="12.75"/>
-    <row r="68" ht="12.75"/>
-    <row r="69" ht="12.75"/>
-    <row r="70" ht="12.75"/>
-    <row r="71" ht="12.75"/>
-    <row r="72" ht="12.75"/>
-    <row r="73" ht="12.75"/>
-    <row r="74" ht="12.75"/>
-    <row r="75" ht="12.75"/>
-    <row r="76" ht="12.75"/>
-    <row r="77" ht="12.75"/>
-    <row r="78" ht="12.75"/>
-    <row r="79" ht="12.75"/>
-    <row r="80" ht="12.75"/>
-    <row r="81" ht="12.75"/>
-    <row r="82" ht="12.75"/>
-    <row r="83" ht="12.75"/>
-    <row r="84" ht="12.75"/>
-    <row r="85" ht="12.75"/>
-    <row r="86" ht="12.75"/>
-    <row r="87" ht="12.75"/>
-    <row r="88" ht="12.75"/>
-    <row r="89" ht="12.75"/>
-    <row r="90" ht="12.75"/>
-    <row r="91" ht="12.75"/>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/TestData/Web_POS/Billing/mode_of_payment_test_data.xlsx
+++ b/TestData/Web_POS/Billing/mode_of_payment_test_data.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">TC_16</t>
   </si>
   <si>
-    <t xml:space="preserve">wkgVcw </t>
+    <t xml:space="preserve">wkgVcw</t>
   </si>
   <si>
     <t xml:space="preserve">TC_17</t>
@@ -285,27 +285,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,540 +562,540 @@
   </sheetPr>
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P10" activeCellId="0" sqref="P10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="39.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="36.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="23.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="22" style="1" width="29.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="23.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="2" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="2" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="22" style="2" width="29.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="23.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="18.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="F2" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="F4" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="I5" s="1"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="I6" s="1"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="I7" s="1"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="L8" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G9" s="0" t="n">
+      <c r="F9" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="L9" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="P9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="F10" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="L10" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="I11" s="1"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="I12" s="1"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G14" s="0" t="n">
+      <c r="F14" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G14" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="L14" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="F15" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="L15" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="R15" s="5"/>
@@ -1104,237 +1104,237 @@
       <c r="U15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G16" s="0" t="n">
+      <c r="F16" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G16" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="L16" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G17" s="0" t="n">
+      <c r="F17" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G17" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="3" t="n">
+      <c r="L17" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G18" s="0" t="n">
+      <c r="F18" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G18" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="3" t="n">
+      <c r="L18" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G19" s="0" t="n">
+      <c r="F19" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G19" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="3" t="n">
+      <c r="L19" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G20" s="0" t="n">
+      <c r="F20" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G20" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="3" t="n">
+      <c r="L20" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="R20" s="5"/>
@@ -1343,49 +1343,49 @@
       <c r="U20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G21" s="0" t="n">
+      <c r="F21" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G21" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="3" t="n">
+      <c r="L21" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="R21" s="5"/>
@@ -1394,49 +1394,49 @@
       <c r="U21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G22" s="0" t="n">
+      <c r="F22" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G22" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="3" t="n">
+      <c r="L22" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="R22" s="5"/>
@@ -1445,49 +1445,49 @@
       <c r="U22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G23" s="0" t="n">
+      <c r="F23" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G23" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="3" t="n">
+      <c r="L23" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="R23" s="5"/>
@@ -1496,49 +1496,49 @@
       <c r="U23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G24" s="0" t="n">
+      <c r="F24" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G24" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="3" t="n">
+      <c r="L24" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="R24" s="5"/>
@@ -1547,373 +1547,373 @@
       <c r="U24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="I25" s="1"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="U25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="I25" s="2"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="U25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="U26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="U26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="I28" s="1"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="I29" s="1"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="I30" s="1"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="I31" s="1"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="I31" s="2"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="I32" s="1"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="I33" s="1"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="I34" s="1"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="I34" s="2"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="I35" s="1"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="I35" s="2"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="I36" s="1"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="I36" s="2"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="I37" s="1"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="I37" s="2"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="I38" s="2"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="I39" s="1"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="I39" s="2"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="I40" s="1"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="I40" s="2"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="I41" s="1"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="I41" s="2"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="I42" s="1"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="I42" s="2"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="I43" s="1"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="I43" s="2"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="I44" s="1"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="I44" s="2"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="I45" s="1"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="I45" s="2"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="I46" s="1"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="I46" s="2"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="I47" s="1"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="I47" s="2"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="I48" s="1"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="I48" s="2"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="I49" s="1"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="I49" s="2"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="I50" s="1"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="I50" s="2"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="I51" s="1"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="I51" s="2"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="I52" s="1"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="I52" s="2"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="I53" s="1"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="I53" s="2"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="I54" s="1"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="I54" s="2"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/TestData/Web_POS/Billing/mode_of_payment_test_data.xlsx
+++ b/TestData/Web_POS/Billing/mode_of_payment_test_data.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Web_POS\Billing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr fullPrecision="1" calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49" count="190">
   <si>
     <t>TC_Id</t>
   </si>
@@ -111,7 +106,7 @@
     <t>TC_16</t>
   </si>
   <si>
-    <t>KdYzhi</t>
+    <t>m2mrIM</t>
   </si>
   <si>
     <t>TC_17</t>
@@ -171,19 +166,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,17 +188,42 @@
       <sz val="10"/>
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="gray125">
         <fgColor indexed="64"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -214,46 +236,57 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF2B579A"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
+  <cellStyleXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ConditionalFormatStyle" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
 </styleSheet>
 </file>
 
@@ -455,46 +488,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="J1">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="J1" view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.63" customHeight="true" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="19.28516" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="19.28516" customWidth="1"/>
-    <col min="5" max="5" width="18.57031" customWidth="1"/>
-    <col min="6" max="6" width="14.85547" customWidth="1"/>
-    <col min="7" max="7" width="16.71094" customWidth="1"/>
-    <col min="8" max="8" width="19.14063" customWidth="1"/>
-    <col min="9" max="9" width="19.14063" customWidth="1"/>
-    <col min="10" max="10" width="39.71094" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.71094" customWidth="1"/>
-    <col min="14" max="14" width="10.71094" customWidth="1"/>
-    <col min="15" max="15" width="10.71094" customWidth="1"/>
-    <col min="16" max="16" width="19.14063" customWidth="1"/>
-    <col min="17" max="17" width="19.14063" customWidth="1"/>
+    <col min="2" max="2" width="19.27734375" customWidth="1"/>
+    <col min="3" max="3" width="43.9296875" customWidth="1"/>
+    <col min="4" max="4" width="19.27734375" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.8203125" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="9" width="19.09765625" customWidth="1"/>
+    <col min="10" max="10" width="39.640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="31.95703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.75" customWidth="1"/>
+    <col min="14" max="15" width="10.70703125" customWidth="1"/>
+    <col min="16" max="17" width="19.09765625" customWidth="1"/>
     <col min="18" max="18" width="36.25" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.92969" customWidth="1"/>
-    <col min="22" max="22" width="29.45703" style="1" customWidth="1"/>
-    <col min="23" max="23" width="29.45703" style="1" customWidth="1"/>
-    <col min="24" max="24" width="29.45703" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.20703" customWidth="1"/>
+    <col min="19" max="20" width="22.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.9296875" customWidth="1"/>
+    <col min="22" max="24" width="29.45703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="23.20703125" customWidth="1"/>
     <col min="26" max="26" width="15" customWidth="1"/>
-    <col min="27" max="27" width="18.92969" customWidth="1"/>
+    <col min="27" max="27" width="18.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:17" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="33.75" customHeight="1">
+    <row r="2" spans="1:15" ht="33.75" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -594,7 +621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
+    <row r="3" spans="1:15" ht="19.5" customHeight="1">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -641,7 +668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1">
+    <row r="4" spans="1:15" ht="31.5" customHeight="1">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -688,7 +715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="2:15" ht="15" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -702,7 +729,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="2:15" ht="15" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -716,7 +743,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="2:15" ht="15" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -730,7 +757,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="1:16" ht="24">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -780,7 +807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
+    <row r="9" spans="1:16" ht="14.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -830,7 +857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
+    <row r="10" spans="1:16" ht="14.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -880,7 +907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" spans="2:15" ht="14.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -892,7 +919,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" spans="2:15" ht="14.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -904,7 +931,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" ht="14.25">
+    <row r="13" spans="2:15" ht="14.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -916,7 +943,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" spans="1:15" ht="14.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -963,7 +990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15" spans="1:21" ht="14.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1014,7 +1041,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" spans="1:15" ht="14.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1061,7 +1088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
+    <row r="17" spans="1:15" ht="14.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1108,7 +1135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
+    <row r="18" spans="1:15" ht="14.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1155,7 +1182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
+    <row r="19" spans="1:15" ht="14.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1202,7 +1229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
+    <row r="20" spans="1:21" ht="14.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1253,7 +1280,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" ht="14.25">
+    <row r="21" spans="1:21" ht="14.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1304,7 +1331,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" ht="14.25">
+    <row r="22" spans="1:21" ht="14.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1355,7 +1382,7 @@
       <c r="T22" s="4"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23" spans="1:21" ht="14.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1406,7 +1433,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" ht="14.25">
+    <row r="24" spans="1:21" ht="14.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1457,7 +1484,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" ht="14.25">
+    <row r="25" spans="2:21" ht="14.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1470,7 +1497,7 @@
       <c r="O25" s="3"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" ht="14.25">
+    <row r="26" spans="2:21" ht="14.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1483,7 +1510,7 @@
       <c r="O26" s="3"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" ht="14.25">
+    <row r="27" spans="2:20" ht="14.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1498,7 +1525,7 @@
       <c r="S27" s="4"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" ht="14.25">
+    <row r="28" spans="2:15" ht="14.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1510,7 +1537,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" ht="14.25">
+    <row r="29" spans="2:21" ht="14.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1526,7 +1553,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" ht="14.25">
+    <row r="30" spans="2:15" ht="14.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1538,7 +1565,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" ht="14.25">
+    <row r="31" spans="2:15" ht="14.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1550,7 +1577,7 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" ht="14.25">
+    <row r="32" spans="2:15" ht="14.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1562,7 +1589,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" ht="14.25">
+    <row r="33" spans="2:15" ht="14.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1574,7 +1601,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" ht="14.25">
+    <row r="34" spans="2:15" ht="14.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1586,7 +1613,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" ht="14.25">
+    <row r="35" spans="2:15" ht="14.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1598,7 +1625,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" ht="14.25">
+    <row r="36" spans="2:15" ht="14.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1610,7 +1637,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" ht="14.25">
+    <row r="37" spans="2:15" ht="14.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1622,7 +1649,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" ht="14.25">
+    <row r="38" spans="2:15" ht="14.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1634,7 +1661,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" ht="14.25">
+    <row r="39" spans="2:15" ht="14.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1646,7 +1673,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" ht="14.25">
+    <row r="40" spans="2:15" ht="14.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1658,7 +1685,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" ht="14.25">
+    <row r="41" spans="2:15" ht="14.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1670,7 +1697,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" ht="14.25">
+    <row r="42" spans="2:15" ht="14.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1682,7 +1709,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" ht="14.25">
+    <row r="43" spans="2:15" ht="14.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1694,7 +1721,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" ht="14.25">
+    <row r="44" spans="2:15" ht="14.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1706,7 +1733,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" ht="14.25">
+    <row r="45" spans="2:15" ht="14.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1718,7 +1745,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" ht="14.25">
+    <row r="46" spans="2:15" ht="14.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1730,7 +1757,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" ht="14.25">
+    <row r="47" spans="2:15" ht="14.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1742,7 +1769,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" ht="14.25">
+    <row r="48" spans="2:15" ht="14.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1754,7 +1781,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" ht="14.25">
+    <row r="49" spans="2:15" ht="14.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1766,7 +1793,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" ht="14.25">
+    <row r="50" spans="2:15" ht="14.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1778,7 +1805,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" ht="14.25">
+    <row r="51" spans="2:15" ht="14.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1790,7 +1817,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" ht="14.25">
+    <row r="52" spans="2:15" ht="14.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1802,7 +1829,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" ht="14.25">
+    <row r="53" spans="2:15" ht="14.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1814,7 +1841,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" ht="14.25">
+    <row r="54" spans="2:15" ht="14.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1826,37 +1853,37 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="10:12" customHeight="1">
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" ht="12.75">
+    <row r="56" spans="10:12" ht="12.75">
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" ht="12.75">
+    <row r="57" spans="10:12" ht="12.75">
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
     </row>
-    <row r="58" ht="12.75">
+    <row r="58" spans="10:12" ht="12.75">
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
     </row>
-    <row r="59" ht="12.75">
+    <row r="59" spans="10:12" ht="12.75">
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
     </row>
-    <row r="60" ht="12.75">
+    <row r="60" spans="10:12" ht="12.75">
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
     </row>
-    <row r="61" ht="12.75">
+    <row r="61" spans="10:12" ht="12.75">
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
@@ -1892,6 +1919,8 @@
     <row r="90" ht="12.75"/>
     <row r="91" ht="12.75"/>
   </sheetData>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <extLst/>
 </worksheet>
 </file>